--- a/Data/Transitions/19401965Translation.xlsx
+++ b/Data/Transitions/19401965Translation.xlsx
@@ -79,7 +79,7 @@
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
+    <t>{679.0: 0.4935636856368564}</t>
   </si>
   <si>
     <t>{34.0: 1.0}</t>
@@ -100,7 +100,7 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.001379178879419197, 246.0: 0.0019479775409648218}</t>
+    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.0013872263249506789, 246.0: 0.0019479775409648218}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
@@ -109,7 +109,7 @@
     <t>{48.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.8927088692332578}</t>
+    <t>{49.0: 0.8862224855942327}</t>
   </si>
   <si>
     <t>{50.0: 1.0}</t>
@@ -163,7 +163,7 @@
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993500645023944, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
+    <t>{79.0: 0.9993781418780706, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
   </si>
   <si>
     <t>{81.0: 1.0}</t>
@@ -178,7 +178,7 @@
     <t>{84.0: 0.6814142894857135}</t>
   </si>
   <si>
-    <t>{85.0: 0.9931534006856265, 178.0: 0.008695627667129929, 492.0: 0.003418852880658436}</t>
+    <t>{85.0: 0.9931534006856265, 178.0: 0.008741692524372261, 492.0: 0.003418852880658436}</t>
   </si>
   <si>
     <t>{86.0: 0.8987559555320275, 694.0: 0.006483790523690773}</t>
@@ -196,7 +196,7 @@
     <t>{91.0: 0.9618488000094441, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0}</t>
   </si>
   <si>
-    <t>{92.0: 1.0, 91.0: 0.038151199990555905, 858.0: 0.11121885973409691}</t>
+    <t>{92.0: 1.0, 91.0: 0.038151199990555905, 858.0: 0.10371055410031664}</t>
   </si>
   <si>
     <t>{94.0: 1.0}</t>
@@ -208,7 +208,7 @@
     <t>{96.0: 1.0, 100.0: 0.001081665765278529}</t>
   </si>
   <si>
-    <t>{97.0: 0.9760645363772565}</t>
+    <t>{97.0: 0.9760863386099149}</t>
   </si>
   <si>
     <t>{98.0: 0.801192063367579}</t>
@@ -232,10 +232,10 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 0.5983649330318316}</t>
-  </si>
-  <si>
-    <t>{107.0: 0.40163506696816836, 505.0: 0.009305654974946313}</t>
+    <t>{107.0: 0.39533413779233467}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.6046658622076654, 505.0: 0.009305654974946313}</t>
   </si>
   <si>
     <t>{108.0: 0.9995243983639304}</t>
@@ -256,13 +256,13 @@
     <t>{142.0: 0.9962324013484037}</t>
   </si>
   <si>
-    <t>{144.0: 0.04837837837837838}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9516216216216217}</t>
-  </si>
-  <si>
-    <t>{145.0: 0.9978703221696027, 743.0: 0.0029220468706393416, 544.0: 2.5343881103012855e-06, 975.0: 0.0051123267978852175, 942.0: 0.031323247389729386, 152.0: 0.0003661755205328425}</t>
+    <t>{144.0: 0.0447239110518864}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9552760889481136}</t>
+  </si>
+  <si>
+    <t>{145.0: 0.9978703221696027, 743.0: 0.0029298788622231006, 544.0: 2.5343881103012855e-06, 975.0: 0.0051123267978852175, 942.0: 0.031323247389729386, 152.0: 0.0003661755205328425}</t>
   </si>
   <si>
     <t>{146.0: 1.0}</t>
@@ -328,13 +328,13 @@
     <t>{177.0: 1.0, 562.0: 0.0005025757004648825}</t>
   </si>
   <si>
-    <t>{178.0: 0.9761333054798886, 681.0: 0.010330059016298597, 768.0: 0.012138970280452072}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.531692820600847}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.46830717939915295}</t>
+    <t>{178.0: 0.976087630142054, 681.0: 0.010415463666074353, 768.0: 0.012138970280452072}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.5315600531459954}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.46843994685400464}</t>
   </si>
   <si>
     <t>{181.0: 0.9954311821816105}</t>
@@ -349,16 +349,16 @@
     <t>{184.0: 0.9938086184968266, 778.0: 0.0034971470642370696, 420.0: 5.360433881417949e-06}</t>
   </si>
   <si>
-    <t>{858.0: 0.45766386834936346}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.140246459639255}</t>
+    <t>{858.0: 0.3251826980051353}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.710222727687857}</t>
   </si>
   <si>
     <t>{202.0: 0.2984619464333068, 307.0: 0.9844963966062609}</t>
   </si>
   <si>
-    <t>{203.0: 0.9011118598382749}</t>
+    <t>{203.0: 0.9116096973347387}</t>
   </si>
   <si>
     <t>{204.0: 1.0}</t>
@@ -406,10 +406,10 @@
     <t>{219.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.40864799025578563}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.5913520097442144}</t>
+    <t>{221.0: 0.29241719930273097}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.707582800697269}</t>
   </si>
   <si>
     <t>{222.0: 1.0}</t>
@@ -418,7 +418,7 @@
     <t>{223.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.7847902097902097}</t>
+    <t>{627.0: 0.567653009610521}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -427,7 +427,7 @@
     <t>{226.0: 0.7384353461125667, 216.0: 0.033211370672670985}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 844.0: 0.003951267698386566}</t>
+    <t>{227.0: 1.0, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -448,7 +448,7 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10729113076674225}</t>
+    <t>{49.0: 0.11377751440576732}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
@@ -457,7 +457,7 @@
     <t>{237.0: 0.9952565761103924}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.0025682932523931824}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025246729400963965}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
@@ -469,7 +469,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.4673382942459527}</t>
+    <t>{242.0: 0.6871389480085133}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -478,10 +478,10 @@
     <t>{244.0: 1.0, 565.0: 0.007684666063101304}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0365901940626062e-06}</t>
+    <t>{858.0: 0.262525543590365}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0484736044753086e-06}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -502,7 +502,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9974317067476068}</t>
+    <t>{253.0: 0.9974753270599036}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -526,7 +526,7 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9747919123771428, 79.0: 0.0006499354976056577}</t>
+    <t>{262.0: 0.9747919123771428, 79.0: 0.0006218581219293059}</t>
   </si>
   <si>
     <t>{263.0: 0.9979662270430174}</t>
@@ -535,13 +535,13 @@
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.06571137480117686}</t>
+    <t>{400.0: 0.06158198808299092}</t>
   </si>
   <si>
     <t>{267.0: 1.0, 887.0: 0.0039276426066777795}</t>
   </si>
   <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723}</t>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764}</t>
   </si>
   <si>
     <t>{271.0: 0.9851791367190204, 237.0: 0.004743423889607589}</t>
@@ -583,7 +583,7 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.01593502092076081}</t>
+    <t>{285.0: 1.0, 311.0: 0.11340988641029195}</t>
   </si>
   <si>
     <t>{286.0: 1.0, 909.0: 0.05257719916943447, 306.0: 0.00631396710626814, 908.0: 0.04976895689720476, 788.0: 0.0027733768944140946}</t>
@@ -649,7 +649,7 @@
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
+    <t>{311.0: 0.17636738590185097}</t>
   </si>
   <si>
     <t>{226.0: 0.2608672648665498, 5.0: 0.016017234919445487, 759.0: 0.003654342218400688}</t>
@@ -670,7 +670,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.21980065376256058}</t>
+    <t>{242.0: 0.3128610519914868}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -679,7 +679,7 @@
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146}</t>
+    <t>{400.0: 0.9375071729331006}</t>
   </si>
   <si>
     <t>{401.0: 1.0, 16.0: 0.005869490159972379}</t>
@@ -691,10 +691,10 @@
     <t>{403.0: 0.9933104321099259}</t>
   </si>
   <si>
-    <t>{404.0: 0.3602408039990831, 907.0: 0.3609253569492138}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.0018966607276280246}</t>
+    <t>{404.0: 0.5153463240358885, 907.0: 0.5163452332102312}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.0019345761519521632}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -712,7 +712,7 @@
     <t>{410.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.6378625352732888, 907.0: 0.6390746430507862}</t>
+    <t>{404.0: 0.4827190998121594, 907.0: 0.4836547667897688}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -742,7 +742,7 @@
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14934163476504986}</t>
+    <t>{597.0: 0.13779986025929664}</t>
   </si>
   <si>
     <t>{423.0: 0.9970319608416004}</t>
@@ -757,10 +757,10 @@
     <t>{426.0: 1.0}</t>
   </si>
   <si>
-    <t>{428.0: 0.2669725101108509, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7321078791910113}</t>
+    <t>{428.0: 0.2118598838073569, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7872205054945053}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
@@ -817,7 +817,7 @@
     <t>{478.0: 1.0, 170.0: 0.4779653070792311}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
+    <t>{479.0: 0.9794553272814143, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -850,7 +850,7 @@
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.995625, 85.0: 0.0014297385620915032, 178.0: 0.015123639130140285, 97.0: 0.023935463622743416}</t>
+    <t>{492.0: 0.995625, 85.0: 0.0014297385620915032, 178.0: 0.015122998363626934, 97.0: 0.023913661390085057}</t>
   </si>
   <si>
     <t>{493.0: 0.9993252361673415}</t>
@@ -916,7 +916,7 @@
     <t>{536.0: 1.0}</t>
   </si>
   <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267}</t>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826}</t>
   </si>
   <si>
     <t>{538.0: 1.0}</t>
@@ -928,10 +928,10 @@
     <t>{540.0: 1.0, 428.0: 0.0009196106981377883}</t>
   </si>
   <si>
-    <t>{542.0: 0.10260447738242569, 911.0: 0.01216659738912571}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.8973955226175743, 911.0: 0.000329448166078341}</t>
+    <t>{542.0: 0.09653726996389683, 911.0: 0.012153140890196356}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.9034627300361032, 911.0: 0.00032908378984788624}</t>
   </si>
   <si>
     <t>{543.0: 1.0}</t>
@@ -964,7 +964,7 @@
     <t>{567.0: 1.0}</t>
   </si>
   <si>
-    <t>{573.0: 0.2315051020408163}</t>
+    <t>{573.0: 0.4529689486108589}</t>
   </si>
   <si>
     <t>{574.0: 1.0, 906.0: 0.007075471698113208}</t>
@@ -982,7 +982,7 @@
     <t>{578.0: 0.8179515418502202}</t>
   </si>
   <si>
-    <t>{573.0: 0.7684948979591837}</t>
+    <t>{573.0: 0.5470310513891411}</t>
   </si>
   <si>
     <t>{580.0: 0.9374294316898758, 728.0: 0.002418704649287826}</t>
@@ -994,7 +994,7 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.4522030262777632, 758.0: 0.0008773141218004999}</t>
+    <t>{583.0: 0.5730553232783095, 758.0: 0.001111778335106056}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
@@ -1012,7 +1012,7 @@
     <t>{588.0: 1.0, 507.0: 0.0010766580534022395}</t>
   </si>
   <si>
-    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.013299521821319988, 10.0: 0.006268500783562598}</t>
+    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.010654858616757608, 10.0: 0.006268500783562598}</t>
   </si>
   <si>
     <t>{590.0: 1.0}</t>
@@ -1021,16 +1021,16 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.3232683533803401, 171.0: 0.001857864099887012}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6767316466196599, 171.0: 0.003889262336894597, 85.0: 0.005416860752281957, 178.0: 4.742772284122022e-05, 492.0: 1.8647119341563785e-05}</t>
+    <t>{593.0: 0.49682353666810586, 171.0: 0.0028553076820006084}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5031764633318941, 171.0: 0.0028918187547810007, 85.0: 0.005416860752281957, 178.0: 4.767896994673605e-05, 492.0: 1.8647119341563785e-05}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.8506583652349502}</t>
+    <t>{597.0: 0.8622001397407033}</t>
   </si>
   <si>
     <t>{598.0: 1.0, 599.0: 0.010538833469030598}</t>
@@ -1063,7 +1063,7 @@
     <t>{607.0: 0.9993920972644377, 276.0: 0.00019373695788784293}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.5979012446107541, 610.0: 0.46377929329690437}</t>
@@ -1120,7 +1120,7 @@
     <t>{626.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.2152097902097902}</t>
+    <t>{627.0: 0.432346990389479}</t>
   </si>
   <si>
     <t>{629.0: 1.0, 209.0: 0.04254266633687855}</t>
@@ -1144,19 +1144,19 @@
     <t>{636.0: 0.997141768292683}</t>
   </si>
   <si>
-    <t>{702.0: 0.0014527342533983605}</t>
+    <t>{702.0: 0.001321003963011889}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
+    <t>{679.0: 0.5064363143631436}</t>
   </si>
   <si>
     <t>{680.0: 0.9963087013294778, 481.0: 0.018463733544381404}</t>
   </si>
   <si>
-    <t>{681.0: 0.9038226351951332, 171.0: 0.004345719985261719, 90.0: 0.0006502117460433972, 420.0: 1.1270053831925288e-06, 212.0: 0.007045575370934223}</t>
+    <t>{681.0: 0.9037440348804595, 171.0: 0.004345719985261719, 90.0: 0.0006502117460433972, 420.0: 1.1270053831925288e-06, 212.0: 0.007045575370934223}</t>
   </si>
   <si>
     <t>{682.0: 1.0, 575.0: 0.001903772931810315}</t>
@@ -1204,10 +1204,10 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.20776196468091965}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7922380353190803, 683.0: 0.00887163848073191}</t>
+    <t>{698.0: 0.4351638564266561}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5648361435733439, 683.0: 0.00887163848073191}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1216,7 +1216,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9985472657466017}</t>
+    <t>{702.0: 0.9986789960369881}</t>
   </si>
   <si>
     <t>{704.0: 1.0}</t>
@@ -1261,13 +1261,13 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.546159419137084, 758.0: 0.001059597887053955}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.9837784313080407, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.42530712213653776, 758.0: 0.000825133673748399}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.9864152625210193, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1366,7 +1366,7 @@
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9927452636939863, 889.0: 0.5730622017651047}</t>
+    <t>{785.0: 0.9927452636939863, 889.0: 0.25659597967009595}</t>
   </si>
   <si>
     <t>{786.0: 1.0}</t>
@@ -1378,7 +1378,7 @@
     <t>{788.0: 0.9085349787093937}</t>
   </si>
   <si>
-    <t>{789.0: 1.0, 681.0: 0.07824284302484964, 171.0: 0.0003762037742763266, 90.0: 5.628805209951758e-05, 420.0: 9.756350621408776e-08, 212.0: 0.000609927021410275}</t>
+    <t>{789.0: 1.0, 681.0: 0.07823603868974756, 171.0: 0.0003762037742763266, 90.0: 5.628805209951758e-05, 420.0: 9.756350621408776e-08, 212.0: 0.000609927021410275}</t>
   </si>
   <si>
     <t>{831.0: 0.9948604959744661}</t>
@@ -1417,7 +1417,7 @@
     <t>{842.0: 1.0, 606.0: 0.002308136180034622}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1429,7 +1429,7 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 634.0: 0.9232439017315892}</t>
+    <t>{848.0: 0.9228851136919364, 634.0: 0.9228851136919364}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
@@ -1459,7 +1459,7 @@
     <t>{857.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.06410669123707292}</t>
+    <t>{858.0: 0.308581204304183}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1468,7 +1468,7 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.6808248608561583, 619.0: 0.0001431947985895543}</t>
+    <t>{861.0: 0.6849891000612596, 619.0: 0.0001431947985895543}</t>
   </si>
   <si>
     <t>{863.0: 1.0}</t>
@@ -1489,7 +1489,7 @@
     <t>{888.0: 0.3122645438196057}</t>
   </si>
   <si>
-    <t>{889.0: 0.42511955700981624, 565.0: 0.00852517641375301}</t>
+    <t>{889.0: 0.7425898794094444, 565.0: 0.00852517641375301}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1525,10 +1525,10 @@
     <t>{909.0: 0.9474228008305655}</t>
   </si>
   <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.3191751391438416}</t>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.3150108999387404}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
@@ -1600,7 +1600,7 @@
     <t>{937.0: 1.0}</t>
   </si>
   <si>
-    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0018182412250789639}</t>
+    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1609,7 +1609,7 @@
     <t>{942.0: 0.9686767526102706}</t>
   </si>
   <si>
-    <t>{943.0: 1.0, 848.0: 0.07675609826841082, 634.0: 0.07675609826841082}</t>
+    <t>{943.0: 1.0, 848.0: 0.07711488630806371, 634.0: 0.07711488630806371}</t>
   </si>
   <si>
     <t>{944.0: 0.9511068120833203}</t>
@@ -1654,13 +1654,13 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.3771760347955267}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.27784056424541764}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.09888814016172506}</t>
+    <t>{992.0: 0.4333451572549258}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.22167144178601855}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.08839030266526125}</t>
   </si>
   <si>
     <t>{1.0: 0.9935835739493103, 886.0: 0.006416426050689768}</t>
@@ -1822,10 +1822,10 @@
     <t>{177.0: 0.9988607234406152, 562.0: 0.0011392765593847907}</t>
   </si>
   <si>
-    <t>{178.0: 0.9862602263863142, 681.0: 0.007171753079185206, 768.0: 0.006568020534500982}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5374525139860676, 180.0: 0.4625474860139325}</t>
+    <t>{178.0: 0.9862044958405798, 681.0: 0.007227483624919333, 768.0: 0.006568020534500982}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5383826591317817, 180.0: 0.46161734086821826}</t>
   </si>
   <si>
     <t>{180.0: 1.0}</t>
@@ -1894,7 +1894,7 @@
     <t>{238.0: 0.9953091684434969, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -1933,7 +1933,7 @@
     <t>{271.0: 0.9988083631242552, 237.0: 0.001191636875744773}</t>
   </si>
   <si>
-    <t>{275.0: 0.9901029295328585, 921.0: 0.009897070467141725}</t>
+    <t>{275.0: 0.9901029295328582, 921.0: 0.009897070467141725}</t>
   </si>
   <si>
     <t>{276.0: 0.9986445928937943, 167.0: 0.0005680531756420232, 596.0: 0.0007873539305638049}</t>
@@ -1996,7 +1996,7 @@
     <t>{404.0: 0.7774172615184942, 907.0: 0.2225827384815055}</t>
   </si>
   <si>
-    <t>{405.0: 0.9975034044484792, 404.0: 0.0024965955515206537}</t>
+    <t>{405.0: 0.9975391498881434, 404.0: 0.0024608501118568234}</t>
   </si>
   <si>
     <t>{404.0: 0.7774172615184941, 907.0: 0.22258273848150553}</t>
@@ -2332,7 +2332,7 @@
     <t>{781.0: 0.999277531220972, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047503, 889.0: 0.2047145289952496}</t>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.31473060493316796}</t>
   </si>
   <si>
     <t>{787.0: 0.9919894647611937, 500.0: 0.0080055674650148, 277.0: 4.967773791507788e-06}</t>
@@ -2458,13 +2458,13 @@
     <t>{934.0: 0.9935019726154561, 5.0: 0.006498027384543977}</t>
   </si>
   <si>
-    <t>{940.0: 0.98649977479185, 785.0: 0.010626942004023135, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.0009868862223623436}</t>
+    <t>{940.0: 0.98649977479185, 785.0: 0.010096577353725059, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.8000222720249447, 848.0: 0.16133961771190689, 634.0: 0.03863811026314845}</t>
+    <t>{943.0: 0.7700641420657479, 848.0: 0.1855094754451809, 634.0: 0.04442638248907136}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
